--- a/scripts_and_outputs/stage_1_results_final.xlsx
+++ b/scripts_and_outputs/stage_1_results_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixNeubauer\UniRepos\literature_review_thesis\scripts_and_outputs_incl_rag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixNeubauer\UniRepos\literature_review_thesis\scripts_and_outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A9FD42-DAA1-4E9F-B2E5-30CF581DCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD7597-7034-43FD-A58B-3DBE6A9A7C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10642,13 +10642,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A848" sqref="A848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="80.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
